--- a/data/cohort model inputs.xlsx
+++ b/data/cohort model inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yx18392\Desktop\knips\cohort markov model\dummy data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4898e5cc837f6cd5/Documents/Bristol/KNIPS/code/KNIPS_cohort_markov/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECB4C85-A740-4C74-BDF9-B433B4897F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="13_ncr:1_{4ECB4C85-A740-4C74-BDF9-B433B4897F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBD7660A-AC67-4F42-BC2B-F04E18BAA797}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{1573D79B-3ADE-4B5F-B94B-0FB77546B166}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{1573D79B-3ADE-4B5F-B94B-0FB77546B166}"/>
   </bookViews>
   <sheets>
     <sheet name="revision_log_rate" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="79">
   <si>
     <t>mean</t>
   </si>
@@ -107,30 +107,12 @@
     <t>Revision elective TKR</t>
   </si>
   <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>estimate</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
     <t>Primary</t>
   </si>
   <si>
-    <t>95%CI low</t>
-  </si>
-  <si>
-    <t>95%CI high</t>
-  </si>
-  <si>
     <t>pre primary</t>
   </si>
   <si>
-    <t>ll</t>
-  </si>
-  <si>
     <t>UL</t>
   </si>
   <si>
@@ -191,9 +173,6 @@
     <t>SE_pre</t>
   </si>
   <si>
-    <t>SE_un_6 months after</t>
-  </si>
-  <si>
     <t>0- female</t>
   </si>
   <si>
@@ -222,6 +201,81 @@
   </si>
   <si>
     <t>85 female</t>
+  </si>
+  <si>
+    <t>pre primary LL</t>
+  </si>
+  <si>
+    <t>pre primary UL</t>
+  </si>
+  <si>
+    <t>6 months after LL</t>
+  </si>
+  <si>
+    <t>6 months after UL</t>
+  </si>
+  <si>
+    <t>pre revision LL</t>
+  </si>
+  <si>
+    <t>pre revision UL</t>
+  </si>
+  <si>
+    <t>disutilities LL</t>
+  </si>
+  <si>
+    <t>disutilities UL</t>
+  </si>
+  <si>
+    <t>6 months after rev</t>
+  </si>
+  <si>
+    <t>6 months after rev LL</t>
+  </si>
+  <si>
+    <t>6 months after rev UL</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Primary number</t>
+  </si>
+  <si>
+    <t>Primary estimate</t>
+  </si>
+  <si>
+    <t>Primary SE</t>
+  </si>
+  <si>
+    <t>Primary 95%CI low</t>
+  </si>
+  <si>
+    <t>Primary 95%CI high</t>
+  </si>
+  <si>
+    <t>revision estimate</t>
+  </si>
+  <si>
+    <t>revision SE</t>
+  </si>
+  <si>
+    <t>revision 95%CI low</t>
+  </si>
+  <si>
+    <t>revision 95%CI high</t>
+  </si>
+  <si>
+    <t>rerevision estimate</t>
+  </si>
+  <si>
+    <t>rerevision SE</t>
+  </si>
+  <si>
+    <t>rerevision 95%CI low</t>
+  </si>
+  <si>
+    <t>rerevision 95%CI high</t>
   </si>
 </sst>
 </file>
@@ -624,30 +678,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995CCCBE-CAD6-4BAD-B69A-BD9D084B9614}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.68359375" customWidth="1"/>
+    <col min="2" max="2" width="19.83984375" customWidth="1"/>
+    <col min="3" max="4" width="18.41796875" customWidth="1"/>
+    <col min="5" max="5" width="19.41796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -655,7 +709,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B2" s="7">
         <v>0.186856277777778</v>
@@ -672,7 +726,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B3" s="7">
         <v>0.20732504444444499</v>
@@ -689,7 +743,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B4" s="7">
         <v>0.22779381111111099</v>
@@ -706,7 +760,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B5" s="7">
         <v>0.24826257777777799</v>
@@ -723,7 +777,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B6" s="7">
         <v>0.26873134444444502</v>
@@ -740,7 +794,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B7" s="7">
         <v>0.28920011111111099</v>
@@ -757,7 +811,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B8" s="7">
         <v>0.30966887777777802</v>
@@ -774,7 +828,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B9" s="7">
         <v>0.33013764444444499</v>
@@ -791,7 +845,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B10" s="7">
         <v>0.35060641111111102</v>
@@ -808,7 +862,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B11" s="7">
         <v>0</v>
@@ -833,71 +887,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DD389C-479E-4C79-AE5E-3B832072342D}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.68359375" customWidth="1"/>
+    <col min="3" max="3" width="11.83984375" customWidth="1"/>
+    <col min="9" max="9" width="9.83984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="K1" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="L1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="N1" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="O1" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="P1" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B2" s="3">
         <v>46073.8</v>
@@ -947,7 +1001,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B3" s="3">
         <v>43638.872727272697</v>
@@ -997,7 +1051,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B4" s="3">
         <v>41203.945454545399</v>
@@ -1047,7 +1101,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B5" s="3">
         <v>38769.018181818101</v>
@@ -1097,7 +1151,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B6" s="3">
         <v>36334.090909090897</v>
@@ -1147,7 +1201,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B7" s="3">
         <v>33899.163636363599</v>
@@ -1197,7 +1251,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B8" s="3">
         <v>31464.236363636301</v>
@@ -1247,7 +1301,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B9" s="3">
         <v>29029.309090908999</v>
@@ -1297,7 +1351,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B10" s="3">
         <v>26594.381818181799</v>
@@ -1347,7 +1401,7 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B11" s="3">
         <v>24159.4545454545</v>
@@ -1405,11 +1459,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA623D3-FC16-490A-9D4D-1626D6E990E2}">
   <dimension ref="A1:C160"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="G156" sqref="G156"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -3185,13 +3239,13 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.83984375" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.26171875" customWidth="1"/>
+    <col min="4" max="4" width="25.41796875" customWidth="1"/>
+    <col min="5" max="5" width="21.15625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3205,10 +3259,10 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3442,71 +3496,73 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:R11"/>
+      <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="14" max="14" width="11.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.26171875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="5"/>
+      <c r="A1" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B1" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B2" s="12">
         <v>0.50329630700186601</v>
@@ -3565,7 +3621,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B3" s="12">
         <v>0.521077641370984</v>
@@ -3624,7 +3680,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B4" s="12">
         <v>0.538858975740101</v>
@@ -3683,7 +3739,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B5" s="12">
         <v>0.55664031010921899</v>
@@ -3742,7 +3798,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B6" s="12">
         <v>0.57442164447833699</v>
@@ -3801,7 +3857,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B7" s="12">
         <v>0.59220297884745299</v>
@@ -3860,7 +3916,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B8" s="12">
         <v>0.60998431321657098</v>
@@ -3919,7 +3975,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B9" s="12">
         <v>0.62776564758568898</v>
@@ -3978,7 +4034,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B10" s="12">
         <v>0.64554698195480698</v>
@@ -4037,7 +4093,7 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B11" s="12">
         <v>0.66332831632392297</v>
@@ -4123,73 +4179,75 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="C9" sqref="C9:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.26171875" customWidth="1"/>
+    <col min="8" max="8" width="14.83984375" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="5"/>
+      <c r="A1" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B1" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B2" s="12">
         <v>0.50329630700186601</v>
@@ -4248,7 +4306,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B3" s="12">
         <v>0.521077641370984</v>
@@ -4307,7 +4365,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B4" s="12">
         <v>0.538858975740101</v>
@@ -4366,7 +4424,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B5" s="12">
         <v>0.55664031010921899</v>
@@ -4425,7 +4483,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B6" s="12">
         <v>0.57442164447833699</v>
@@ -4484,7 +4542,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B7" s="12">
         <v>0.59220297884745299</v>
@@ -4543,7 +4601,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B8" s="12">
         <v>0.60998431321657098</v>
@@ -4602,7 +4660,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B9" s="12">
         <v>0.62776564758568898</v>
@@ -4661,7 +4719,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B10" s="12">
         <v>0.64554698195480698</v>
@@ -4720,7 +4778,7 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B11" s="12">
         <v>0.66332831632392297</v>
